--- a/240308 DoE input file.xlsx
+++ b/240308 DoE input file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm19ljc\Documents\GitHub\MS-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E5664-C6D9-4F50-8938-EC2A1DF6667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA386DB9-B4C5-4955-8637-9325373524C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4E7EF13A-7E46-4B07-B782-DF1F2887ACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -225,65 +225,65 @@
     <t>N13</t>
   </si>
   <si>
-    <t>240214_doe_exp_1</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_2</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_3</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_4</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_5</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_6</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_7</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_8</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_9</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_13</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_14</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_15</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_16</t>
-  </si>
-  <si>
-    <t>240214_doe_exp_17</t>
-  </si>
-  <si>
-    <t>240308_Nexp_8</t>
-  </si>
-  <si>
-    <t>240308_Nexp_9</t>
-  </si>
-  <si>
-    <t>240308_Nexp_10</t>
-  </si>
-  <si>
     <t>E:\mass spectra\DoE MODDE experiment</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_11_3-2-48_1_9731.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_12_3-2-49_1_9732.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_13_3-2-50_1_9733.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_14_1-1-30_1_9597.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_15_1-1-31_1_9598.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_16_1-1-32_1_9599.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_17_1-1-33_1_9600.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_1_3-2-45_1_9728.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_2_3-2-46_1_9729.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_3_3-2-47_1_9730.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_4_1-1-26_1_9593.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_5_1-1-27_1_9594.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_6_1-1-28_1_9595.d</t>
+  </si>
+  <si>
+    <t>240214_doe_exp_7_1-1-29_1_9596.d</t>
+  </si>
+  <si>
+    <t>240308_Nexp_10_3-1-16_1_10665.d</t>
+  </si>
+  <si>
+    <t>240308_Nexp_8_3-1-14_1_10663.d</t>
+  </si>
+  <si>
+    <t>240308_Nexp_9_3-1-15_1_10664.d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -307,6 +307,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -358,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -394,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884F279-2674-498F-AEF2-F7BB1DCF9FFF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -739,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B83FD0-BD81-4C2A-8172-3925B5BB978B}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -976,9 +985,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1008,9 +1017,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1040,9 +1049,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1072,9 +1081,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1104,9 +1113,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1136,9 +1145,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1168,9 +1177,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1200,9 +1209,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1232,9 +1241,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1264,9 +1273,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>76</v>
+    <row r="11" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1296,9 +1305,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>77</v>
+    <row r="12" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1328,9 +1337,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1360,9 +1369,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>71</v>
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1392,9 +1401,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1424,9 +1433,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>73</v>
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1456,9 +1465,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>74</v>
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1488,9 +1497,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>75</v>
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1523,5 +1532,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>